--- a/testData/Notification/WF2_Only_On_the_first_Save_test.xlsx
+++ b/testData/Notification/WF2_Only_On_the_first_Save_test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,22 +19,220 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Crmmoduleonlyfirstsave</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>ModuleName</t>
+  </si>
+  <si>
+    <t>WorflowName</t>
+  </si>
+  <si>
+    <t>AssignedTo</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>PickList</t>
+  </si>
+  <si>
+    <t>MultiCombo</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date&amp;Time</t>
+  </si>
+  <si>
+    <t>RelatedModule</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>NamePrefix</t>
+  </si>
+  <si>
+    <t>CRMModOnlyonFirstSave</t>
+  </si>
+  <si>
+    <t>MobNumPrefix</t>
+  </si>
+  <si>
+    <t>Kanchipuram</t>
+  </si>
+  <si>
+    <t>Tamilnadu</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>CrmEditFieldModule</t>
+  </si>
+  <si>
+    <t>Sudhakar</t>
+  </si>
+  <si>
+    <t>http://www.google.com</t>
+  </si>
+  <si>
+    <t>Enquiry_Name</t>
+  </si>
+  <si>
+    <t>Enquiry_Email</t>
+  </si>
+  <si>
+    <t>Enquiry_Text</t>
+  </si>
+  <si>
+    <t>Enquiry_TextArea</t>
+  </si>
+  <si>
+    <t>Enquiry_Date</t>
+  </si>
+  <si>
+    <t>Enquiry_PhoneNumber</t>
+  </si>
+  <si>
+    <t>Enq_PN_Prefix</t>
+  </si>
+  <si>
+    <t>TestName1</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>Enquired about real estate</t>
+  </si>
+  <si>
+    <t>Working on software and getting good salary. Looking for real estate.</t>
+  </si>
+  <si>
+    <t>sudhakar@rsoft.in</t>
+  </si>
+  <si>
+    <t>Welcome to automation world</t>
+  </si>
+  <si>
+    <t>WF2_Only_On_First_Save</t>
+  </si>
+  <si>
+    <t>Exec_Condition</t>
+  </si>
+  <si>
+    <t>Action_Title</t>
+  </si>
+  <si>
+    <t>Only on the first save</t>
+  </si>
+  <si>
+    <t>Action_Type</t>
+  </si>
+  <si>
+    <t>Send notification</t>
+  </si>
+  <si>
+    <t>TriggerFirstSave</t>
+  </si>
+  <si>
+    <t>RecordId</t>
+  </si>
+  <si>
+    <t>WorkflowPos</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>three,four</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Enq_Name_Prefix</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>Enquiry_Category</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>+65</t>
+  </si>
+  <si>
+    <t>12-28-2023</t>
+  </si>
+  <si>
+    <t>02:35PM</t>
+  </si>
+  <si>
+    <t>12-28-2023 06:00 PM</t>
+  </si>
+  <si>
+    <t>+60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,13 +255,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,28 +545,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.6328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.1796875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.7265625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.7265625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="20.453125"/>
+    <col min="32" max="32" customWidth="true" width="20.453125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="AD1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="AF1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="AG1" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="AH1" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="AI1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="AJ1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="AK1" t="s" s="0">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="0">
+        <v>3333333333</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="0">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="U2" s="0">
+        <v>11111111111</v>
+      </c>
+      <c r="V2" s="0">
+        <v>5000</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="AB2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>45273</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>7777777777</v>
+      </c>
+      <c r="AF2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="AG2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="AH2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="AJ2" t="s" s="0">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1"/>
+    <hyperlink ref="Z2" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>